--- a/xlsxmaps/level_0014.xlsx
+++ b/xlsxmaps/level_0014.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED61048-50A0-4760-A2F9-4EB0C6F6D5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F07D7F-D037-4E59-A209-0BE42C1C29F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="层" sheetId="9" r:id="rId1"/>
@@ -1859,7 +1859,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF10027-6CFA-48BA-8B1E-EBFA05B32ABD}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1">
       <c r="A3" s="2">
-        <v>10000000</v>
+        <v>40000000</v>
       </c>
       <c r="B3" s="2">
-        <v>11001000</v>
+        <v>41001000</v>
       </c>
       <c r="C3" s="2">
         <v>10000000</v>
@@ -2115,10 +2115,10 @@
         <v>10000000</v>
       </c>
       <c r="E3" s="2">
-        <v>11001000</v>
+        <v>41001000</v>
       </c>
       <c r="F3" s="2">
-        <v>10000000</v>
+        <v>40000000</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1">
       <c r="A4" s="2">
-        <v>11001000</v>
+        <v>41001000</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>11001000</v>
+        <v>41001000</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -2231,7 +2231,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>11001000</v>
+        <v>41001000</v>
       </c>
       <c r="C3" s="2">
-        <v>10000000</v>
+        <v>40000000</v>
       </c>
       <c r="D3" s="2">
-        <v>11001000</v>
+        <v>41001000</v>
       </c>
       <c r="E3" s="2">
-        <v>10000000</v>
+        <v>40000000</v>
       </c>
       <c r="F3" s="2">
-        <v>11001000</v>
+        <v>41001000</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -2417,7 +2417,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2501,16 +2501,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>11001000</v>
+        <v>41001000</v>
       </c>
       <c r="C4" s="2">
-        <v>10000000</v>
+        <v>40000000</v>
       </c>
       <c r="D4" s="2">
-        <v>10000000</v>
+        <v>40000000</v>
       </c>
       <c r="E4" s="2">
-        <v>11001000</v>
+        <v>41001000</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -2603,7 +2603,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2788,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FAFCBE-D484-4D46-8DEF-2C72222C67A4}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2975,7 +2975,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
